--- a/biology/Biochimie/Globotriaosylcéramide/Globotriaosylcéramide.xlsx
+++ b/biology/Biochimie/Globotriaosylcéramide/Globotriaosylcéramide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Globotriaosylc%C3%A9ramide</t>
+          <t>Globotriaosylcéramide</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un globotriaosylcéramide est un globoside également appelé trihexosylcéramide, CD77, Gb3 ou GL-3 dont la structure peut être représentée par αGal–βGal–βGlc–Cer :
 une unité céramide constituée d'un résidu de sphingosine lié à un acide gras ;
@@ -488,9 +500,9 @@
 un résidu de galactose lié au glucose par une liaison β-osidique ;
 un résidu de galactose terminal lié au galactose par une liaison α-osidique.
 Ces composés diffèrent les uns des autres uniquement par l'acide gras combiné à la sphingosine de l'unité céramide. Ils comptent parmi les rares clusters de différenciation qui ne soient pas de nature protéique.
-Les globotriaosylcéramides sont produits dans les cellules à partir de galactose et de lactosylcéramide sous l'action de l'α-1,4-galactosyltransférase et sont dégradés dans les lysosomes par l'α-galactosidase, enzyme dont l'absence cause la maladie de Fabry[1].
+Les globotriaosylcéramides sont produits dans les cellules à partir de galactose et de lactosylcéramide sous l'action de l'α-1,4-galactosyltransférase et sont dégradés dans les lysosomes par l'α-galactosidase, enzyme dont l'absence cause la maladie de Fabry.
 Les globotriaosylcéramides agissent à la membrane cellulaire comme des récepteurs non peptidiques. Les toxines de Shiga, par exemple, se lient à un globotriaosylcéramide avant de pénétrer dans la cellule par endocytose.
-Certains cancers ont pour effet de surexprimer les globotriaosylcéramides dans la membrane cellulaire, ce qui laisse entrevoir de possibles applications dans les traitements contre ces cancers[2].
+Certains cancers ont pour effet de surexprimer les globotriaosylcéramides dans la membrane cellulaire, ce qui laisse entrevoir de possibles applications dans les traitements contre ces cancers.
 </t>
         </is>
       </c>
